--- a/v0.7/ValueSet-claim-service-categories.xlsx
+++ b/v0.7/ValueSet-claim-service-categories.xlsx
@@ -36,7 +36,7 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Claim Service Categories</t>
+    <t>ClaimServiceCategories</t>
   </si>
   <si>
     <t>Title</t>

--- a/v0.7/ValueSet-claim-service-categories.xlsx
+++ b/v0.7/ValueSet-claim-service-categories.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://fhir-ig-demo/ValueSet/claim-service-categories</t>
+    <t>https://hcxprotocol.io/fhir/r4/ValueSet/claim-service-categories</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>HL7 International - HCX</t>
+    <t>HCX Open Community</t>
   </si>
   <si>
     <t>Contact</t>

--- a/v0.7/ValueSet-claim-service-categories.xlsx
+++ b/v0.7/ValueSet-claim-service-categories.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hcxprotocol.io/fhir/r4/ValueSet/claim-service-categories</t>
+    <t>https://swasth-digital-health-foundation.github.io/standards/v0.7/ValueSet-claim-service-categories.html</t>
   </si>
   <si>
     <t>Version</t>
